--- a/Test/Lawnmower/T2/Sensors_data_1000006.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000006.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6591159280194149</v>
+        <v>0.9782839650036441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01787284243242882</v>
+        <v>0.0009318070794111664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2693306806942237</v>
+        <v>0.4053185344136676</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9619566931076663</v>
+        <v>0.9757970156776522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002349564984626253</v>
+        <v>0.00107215244603521</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005554073819839855</v>
+        <v>0.006325264150341792</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,118 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02597819086076658</v>
+        <v>0.9264882523621665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04179402075052426</v>
+        <v>0.003663369868703712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6804034664586487</v>
+        <v>0.03260672681851273</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9483944209661016</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.002286042376153153</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01655585626183403</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9981225494597997</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.356049828709739e-05</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.007449990672921403</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7109895633528516</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01703475701270942</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2363537720045694</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9338408784399619</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001399605042787174</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1450999306241961</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
